--- a/Guru99/TC_V2.xlsx
+++ b/Guru99/TC_V2.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1208B455-87D2-4645-9358-499A23C69BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C748B449-C095-4568-BAE7-625C9B5488AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manager" sheetId="1" r:id="rId1"/>
-    <sheet name="drop" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -135,23 +134,21 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
+    <t>TC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,13 +159,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,25 +173,30 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <patternFill patternType="darkGray">
+        <bgColor theme="1" tint="0.14996795556505021"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="1" tint="0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -202,38 +204,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyBorder="0" applyAlignment="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 1" xfId="1" xr:uid="{48540A74-5A38-46CE-A885-A7DEB07E9381}"/>
+    <cellStyle name="Style 2" xfId="2" xr:uid="{C54BD104-D706-4CC8-B1AF-F972C2684223}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -274,32 +352,13 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC49500"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -312,13 +371,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}" name="Table1" displayName="Table1" ref="A2:B5" totalsRowShown="0">
-  <autoFilter ref="A2:B5" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}" name="Table1" displayName="Table1" ref="A2:B9" totalsRowShown="0" headerRowCellStyle="Style 2" dataCellStyle="Style 2">
+  <autoFilter ref="A2:B9" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="7" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="6" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Style 2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}" name="Table2" displayName="Table2" ref="A11:I13" totalsRowShown="0" headerRowDxfId="0" dataDxfId="10" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
+  <autoFilter ref="A11:I13" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{2071B39D-89B8-424C-A673-240D56D9FF2C}" name="ID" dataDxfId="9" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{5CA6C4AF-7B72-4BFE-ACD6-5036B4A6A503}" name="Test Scenario" dataDxfId="8" dataCellStyle="Style 2"/>
+    <tableColumn id="3" xr3:uid="{43958177-75C6-46BD-B24E-1922DF08EB71}" name="Test Case" dataDxfId="7" dataCellStyle="Style 2"/>
+    <tableColumn id="4" xr3:uid="{E9FBB7B4-A3F3-43F9-BE99-8108EEC1DF80}" name="Precondition" dataDxfId="6" dataCellStyle="Style 2"/>
+    <tableColumn id="5" xr3:uid="{3C120ACD-C820-40F0-A811-FB71965A8456}" name="Test Data" dataDxfId="5" dataCellStyle="Style 2"/>
+    <tableColumn id="6" xr3:uid="{F840AE51-B943-4D36-B3DD-DA6D7928A78B}" name="Test Steps" dataDxfId="4" dataCellStyle="Style 2"/>
+    <tableColumn id="7" xr3:uid="{3CAB261C-D69B-43E7-A1D7-1A6BA20FD74A}" name="Expected" dataDxfId="3" dataCellStyle="Style 2"/>
+    <tableColumn id="8" xr3:uid="{D73F2198-7F9E-4E49-B11E-8EFAB3145591}" name="Actual" dataDxfId="2" dataCellStyle="Style 2"/>
+    <tableColumn id="9" xr3:uid="{3A901906-294C-4EAB-8697-53959199AE33}" name="Status" dataDxfId="1" dataCellStyle="Style 1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -586,202 +673,198 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:J11"/>
+  <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="8" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2">
-        <f>COUNTIF(A:A, "*TC*")</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1">
+        <f>COUNTIF(A11:A120, "*TC*")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E3">
+      <c r="B7" s="1">
         <f>COUNTIF(I:I, "pass")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6" t="s">
+    <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E4">
+      <c r="B8" s="1">
         <f>COUNTIF(I:I, "fail")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="8">
-        <f>AVERAGE(E2:E4)</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="13" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+  <conditionalFormatting sqref="I12:I13">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="J2">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I13" xr:uid="{067232EC-B01A-4586-B77B-33D5B65A74F6}">
+      <formula1>"pass,fail"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9F68D9B-F62F-4BAB-9E9F-49122CE65EB0}">
           <x14:formula1>
-            <xm:f>drop!$A$1:$A$2</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>J2 I11</xm:sqref>
+          <xm:sqref>J2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD00B568-82D3-4357-B9BE-35CF8FB26B19}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Guru99/TC_V2.xlsx
+++ b/Guru99/TC_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C748B449-C095-4568-BAE7-625C9B5488AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E42794-671E-41D3-A290-F9EB3B9C8087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>Test Data</t>
-  </si>
-  <si>
-    <t>G99_TC_001</t>
-  </si>
-  <si>
-    <t>Verify manager can login</t>
   </si>
   <si>
     <t>Verify with valid ID &amp; Password</t>
@@ -98,9 +92,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>fail</t>
-  </si>
-  <si>
     <t>Project Name</t>
   </si>
   <si>
@@ -134,7 +125,96 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>TC</t>
+    <t>TC_Login_001</t>
+  </si>
+  <si>
+    <t>TC_Login_002</t>
+  </si>
+  <si>
+    <t>Verify manager login</t>
+  </si>
+  <si>
+    <t>Verify with valid ID &amp; blank
+ Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id = mngr533671
+password = </t>
+  </si>
+  <si>
+    <t>As Expected
+As Expected
+As Expected
+As Expected</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>TC_Login_003</t>
+  </si>
+  <si>
+    <t>TC_Login_004</t>
+  </si>
+  <si>
+    <t>Verify with blank ID &amp; valid
+ Password</t>
+  </si>
+  <si>
+    <t>Verify with valid ID &amp; wrong
+ Password</t>
+  </si>
+  <si>
+    <t>id =
+password = aruvete</t>
+  </si>
+  <si>
+    <t>id = mngr533671
+password = momo</t>
+  </si>
+  <si>
+    <t>TC_Login_005</t>
+  </si>
+  <si>
+    <t>Verify with wrong ID &amp; wrong
+ Password</t>
+  </si>
+  <si>
+    <t>id = KOKO
+password = momo</t>
+  </si>
+  <si>
+    <t>1) page opened
+2) ID entered
+3) password entered
+4) unsucceful login message appear</t>
+  </si>
+  <si>
+    <t>TC_Logout_1</t>
+  </si>
+  <si>
+    <t>Verify manager logout</t>
+  </si>
+  <si>
+    <t>Verify manager can logout</t>
+  </si>
+  <si>
+    <t>1) website is opened
+2) previosly logedin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) open Home page
+2) Click on logout button
+</t>
+  </si>
+  <si>
+    <t>1) page opened
+2) succeful logout message appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Expected
+As Expected
+</t>
   </si>
 </sst>
 </file>
@@ -196,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -219,6 +299,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -227,7 +320,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,6 +340,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -254,63 +368,48 @@
     <cellStyle name="Style 1" xfId="1" xr:uid="{48540A74-5A38-46CE-A885-A7DEB07E9381}"/>
     <cellStyle name="Style 2" xfId="2" xr:uid="{C54BD104-D706-4CC8-B1AF-F972C2684223}"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
+  <dxfs count="24">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="double">
+          <color rgb="FF3F3F3F"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="double">
+          <color rgb="FF3F3F3F"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="double">
+          <color rgb="FF3F3F3F"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="double">
+          <color rgb="FF3F3F3F"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -351,6 +450,91 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,16 +558,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}" name="Table1" displayName="Table1" ref="A2:B9" totalsRowShown="0" headerRowCellStyle="Style 2" dataCellStyle="Style 2">
   <autoFilter ref="A2:B9" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Style 2"/>
+    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="15" totalsRowDxfId="16" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="13" totalsRowDxfId="14" dataCellStyle="Style 2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}" name="Table2" displayName="Table2" ref="A11:I13" totalsRowShown="0" headerRowDxfId="0" dataDxfId="10" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
-  <autoFilter ref="A11:I13" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}" name="Table2" displayName="Table2" ref="A11:I16" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
+  <autoFilter ref="A11:I16" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -395,15 +579,15 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{2071B39D-89B8-424C-A673-240D56D9FF2C}" name="ID" dataDxfId="9" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{5CA6C4AF-7B72-4BFE-ACD6-5036B4A6A503}" name="Test Scenario" dataDxfId="8" dataCellStyle="Style 2"/>
-    <tableColumn id="3" xr3:uid="{43958177-75C6-46BD-B24E-1922DF08EB71}" name="Test Case" dataDxfId="7" dataCellStyle="Style 2"/>
-    <tableColumn id="4" xr3:uid="{E9FBB7B4-A3F3-43F9-BE99-8108EEC1DF80}" name="Precondition" dataDxfId="6" dataCellStyle="Style 2"/>
-    <tableColumn id="5" xr3:uid="{3C120ACD-C820-40F0-A811-FB71965A8456}" name="Test Data" dataDxfId="5" dataCellStyle="Style 2"/>
-    <tableColumn id="6" xr3:uid="{F840AE51-B943-4D36-B3DD-DA6D7928A78B}" name="Test Steps" dataDxfId="4" dataCellStyle="Style 2"/>
-    <tableColumn id="7" xr3:uid="{3CAB261C-D69B-43E7-A1D7-1A6BA20FD74A}" name="Expected" dataDxfId="3" dataCellStyle="Style 2"/>
-    <tableColumn id="8" xr3:uid="{D73F2198-7F9E-4E49-B11E-8EFAB3145591}" name="Actual" dataDxfId="2" dataCellStyle="Style 2"/>
-    <tableColumn id="9" xr3:uid="{3A901906-294C-4EAB-8697-53959199AE33}" name="Status" dataDxfId="1" dataCellStyle="Style 1"/>
+    <tableColumn id="1" xr3:uid="{2071B39D-89B8-424C-A673-240D56D9FF2C}" name="ID" dataDxfId="3" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{5CA6C4AF-7B72-4BFE-ACD6-5036B4A6A503}" name="Test Scenario" dataDxfId="2" dataCellStyle="Style 2"/>
+    <tableColumn id="3" xr3:uid="{43958177-75C6-46BD-B24E-1922DF08EB71}" name="Test Case" dataDxfId="0" dataCellStyle="Style 2"/>
+    <tableColumn id="4" xr3:uid="{E9FBB7B4-A3F3-43F9-BE99-8108EEC1DF80}" name="Precondition" dataDxfId="1" dataCellStyle="Style 2"/>
+    <tableColumn id="5" xr3:uid="{3C120ACD-C820-40F0-A811-FB71965A8456}" name="Test Data" dataDxfId="21" dataCellStyle="Style 2"/>
+    <tableColumn id="6" xr3:uid="{F840AE51-B943-4D36-B3DD-DA6D7928A78B}" name="Test Steps" dataDxfId="20" dataCellStyle="Style 2"/>
+    <tableColumn id="7" xr3:uid="{3CAB261C-D69B-43E7-A1D7-1A6BA20FD74A}" name="Expected" dataDxfId="19" dataCellStyle="Style 2"/>
+    <tableColumn id="8" xr3:uid="{D73F2198-7F9E-4E49-B11E-8EFAB3145591}" name="Actual" dataDxfId="18" dataCellStyle="Style 2"/>
+    <tableColumn id="9" xr3:uid="{3A901906-294C-4EAB-8697-53959199AE33}" name="Status" dataDxfId="17" dataCellStyle="Style 1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -673,10 +857,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:J13"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="8" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A3" colorId="8" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
@@ -695,49 +879,49 @@
   <sheetData>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <f>COUNTIF(A11:A120, "*TC*")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <f>COUNTIF(I:I, "pass")</f>
@@ -746,11 +930,11 @@
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
         <f>COUNTIF(I:I, "fail")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -764,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>7</v>
@@ -784,68 +968,207 @@
     </row>
     <row r="12" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I13" s="5" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I12:I13">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+  <conditionalFormatting sqref="I12:I17">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I13" xr:uid="{067232EC-B01A-4586-B77B-33D5B65A74F6}">
+  <conditionalFormatting sqref="I13:I17">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"Default"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12" xr:uid="{067232EC-B01A-4586-B77B-33D5B65A74F6}">
       <formula1>"pass,fail"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{D9F68D9B-F62F-4BAB-9E9F-49122CE65EB0}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17" xr:uid="{F83B8207-4E9C-43AB-B1BB-306CCEFFBFE9}">
+      <formula1>"Default,pass,fail"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -854,17 +1177,5 @@
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9F68D9B-F62F-4BAB-9E9F-49122CE65EB0}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Guru99/TC_V2.xlsx
+++ b/Guru99/TC_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E42794-671E-41D3-A290-F9EB3B9C8087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F0509A-0FA9-4CB1-AD25-2A399F9FD02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -89,9 +89,6 @@
 4) succeful login message appear</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>Project Name</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
 As Expected</t>
   </si>
   <si>
-    <t>Default</t>
-  </si>
-  <si>
     <t>TC_Login_003</t>
   </si>
   <si>
@@ -212,16 +206,342 @@
 2) succeful logout message appear</t>
   </si>
   <si>
-    <t xml:space="preserve">As Expected
-As Expected
+    <t>TC_New
+Customer_01</t>
+  </si>
+  <si>
+    <t>Verify manager add 
+new customer</t>
+  </si>
+  <si>
+    <t>Verify add new customer with 
+valid name, valid address
+valid city, valid state
+valid pin, valid phone no.
+valid email, valid birth date
+,valid gender.</t>
+  </si>
+  <si>
+    <t>1) website is opened
+2) manager previosly logedin
+3)home page opened</t>
+  </si>
+  <si>
+    <t>name = koko
+gender = male
+BirtDate = 1/1/1999
+address = kafr tohormos
+city = giza
+state = faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) click on new customer tab on the left of the screen
+2) click on name textbox and enter customer name
+3) click on gender radio button and choose one option
+4) click on birthdate textbox and choose the birthdate
+5) click on the address textbox and enter the address
+6) click on the city textbox and enter the city info
+7) click on the state textbox and enter the state info
+8) click on pin textbox and enter the pin code
+9) click on the phone textbox and enter the phone
+10) click on the emailid textbox and enter the info
+11) click on the submit button
 </t>
+  </si>
+  <si>
+    <t>1) page opened
+2) name entered
+3) gender entered
+4) birthdate entered
+5) address entered
+6) city entered
+7) state entered
+8) pin entered
+9) phone entered
+10) emailid entered
+11) succeful message appear</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_02</t>
+  </si>
+  <si>
+    <t>name = 98koko
+gender = male
+BirtDate = 1/1/1999
+address = kafr tohormos
+city = giza
+state = faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t>1) page opened
+2) name entered
+3) gender entered
+4) birthdate entered
+5) address entered
+6) city entered
+7) state entered
+8) pin entered
+9) phone entered
+10) emailid entered
+11) unsucceful message appear</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_03</t>
+  </si>
+  <si>
+    <t>name = #koko%
+gender = male
+BirtDate = 1/1/1999
+address = kafr tohormos
+city = giza
+state = faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_04</t>
+  </si>
+  <si>
+    <t>name =   koko
+gender = male
+BirtDate = 1/1/1999
+address = kafr tohormos
+city = giza
+state = faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_05</t>
+  </si>
+  <si>
+    <t>name =   
+gender = male
+BirtDate = 1/1/1999
+address = kafr tohormos
+city = giza
+state = faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_06</t>
+  </si>
+  <si>
+    <t>name = koko
+gender = male
+BirtDate = 1/1/1999
+address =   kafr tohormos
+city = giza
+state = faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Verify add new customer with 
+invalid name(contain numbers), valid address
+valid city, valid state
+valid pin, valid phone no.
+valid email, valid birth date
+,valid gender.</t>
+  </si>
+  <si>
+    <t>Verify add new customer with 
+invalid name(containes special characters), valid address
+valid city, valid state
+valid pin, valid phone no.
+valid email, valid birth date
+,valid gender.</t>
+  </si>
+  <si>
+    <t>Verify add new customer with 
+invalid name(start with space), valid address
+valid city, valid state
+valid pin, valid phone no.
+valid email, valid birth date
+,valid gender.</t>
+  </si>
+  <si>
+    <t>Verify add new customer with 
+invalid name(left blank), valid address
+valid city, valid state
+valid pin, valid phone no.
+valid email, valid birth date
+,valid gender.</t>
+  </si>
+  <si>
+    <t>Verify add new customer with 
+valid name, invalid address(start with space)
+valid city, valid state
+valid pin, valid phone no.
+valid email, valid birth date
+,valid gender.</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_07</t>
+  </si>
+  <si>
+    <t>Verify add new customer with 
+valid name, invalid address(containes special characters)
+valid city, valid state
+valid pin, valid phone no.
+valid email, valid birth date
+,valid gender.</t>
+  </si>
+  <si>
+    <t>name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  &amp;kafr tohormos
+city = giza
+state = faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_08</t>
+  </si>
+  <si>
+    <t>Verify add new customer with 
+valid name, invalid address(left blank)
+valid city, valid state
+valid pin, valid phone no.
+valid email, valid birth date
+,valid gender.</t>
+  </si>
+  <si>
+    <t>name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  
+city = giza
+state = faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_09</t>
+  </si>
+  <si>
+    <t>Verify add new customer with 
+valid name, valid address
+invalid city(left blank), valid state
+valid pin, valid phone no.
+valid email, valid birth date
+,valid gender.</t>
+  </si>
+  <si>
+    <t>Verify add new customer with 
+valid name, valid address
+invalid city(containes special characters), valid state
+valid pin, valid phone no.
+valid email, valid birth date
+,valid gender.</t>
+  </si>
+  <si>
+    <t>name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = 
+state = faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t>name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = %&amp;giza
+state = faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t>Verify add new customer with 
+valid name, valid address
+invalid city(start with space), valid state
+valid pin, valid phone no.
+valid email, valid birth date
+,valid gender.</t>
+  </si>
+  <si>
+    <t>name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city =  giza
+state = faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_010</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_11</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_12</t>
+  </si>
+  <si>
+    <t>Verify add new customer with 
+valid name, valid address
+invalid city(containes numbers), valid state
+valid pin, valid phone no.
+valid email, valid birth date
+,valid gender.</t>
+  </si>
+  <si>
+    <t>name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = g903iza
+state = faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +560,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,7 +646,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,9 +676,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -368,38 +691,26 @@
     <cellStyle name="Style 1" xfId="1" xr:uid="{48540A74-5A38-46CE-A885-A7DEB07E9381}"/>
     <cellStyle name="Style 2" xfId="2" xr:uid="{C54BD104-D706-4CC8-B1AF-F972C2684223}"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="double">
-          <color rgb="FF3F3F3F"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="double">
-          <color rgb="FF3F3F3F"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="double">
-          <color rgb="FF3F3F3F"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="double">
-          <color rgb="FF3F3F3F"/>
-        </right>
-      </border>
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -453,6 +764,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -492,6 +813,202 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="double">
+          <color rgb="FF3F3F3F"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="double">
+          <color rgb="FF3F3F3F"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="double">
+          <color rgb="FF3F3F3F"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="double">
+          <color rgb="FF3F3F3F"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -510,30 +1027,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -554,19 +1047,916 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Manager!$A$6:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Manager!$A$7:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>PASS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Manager!$B$6:$B$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Manager!$B$7:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions/>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BC5-46AF-A9F2-880DEF3616C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76789160798061307"/>
+          <c:y val="0.38187419183083593"/>
+          <c:w val="0.13536324993874344"/>
+          <c:h val="0.30078313591197442"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9070</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D16C19-D992-ACDD-DAED-6EEEFD3A64E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}" name="Table1" displayName="Table1" ref="A2:B9" totalsRowShown="0" headerRowCellStyle="Style 2" dataCellStyle="Style 2">
   <autoFilter ref="A2:B9" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="15" totalsRowDxfId="16" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="13" totalsRowDxfId="14" dataCellStyle="Style 2"/>
+    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Style 2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}" name="Table2" displayName="Table2" ref="A11:I16" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}" name="Table2" displayName="Table2" ref="A11:I16" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
   <autoFilter ref="A11:I16" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -579,15 +1969,15 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{2071B39D-89B8-424C-A673-240D56D9FF2C}" name="ID" dataDxfId="3" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{5CA6C4AF-7B72-4BFE-ACD6-5036B4A6A503}" name="Test Scenario" dataDxfId="2" dataCellStyle="Style 2"/>
-    <tableColumn id="3" xr3:uid="{43958177-75C6-46BD-B24E-1922DF08EB71}" name="Test Case" dataDxfId="0" dataCellStyle="Style 2"/>
-    <tableColumn id="4" xr3:uid="{E9FBB7B4-A3F3-43F9-BE99-8108EEC1DF80}" name="Precondition" dataDxfId="1" dataCellStyle="Style 2"/>
-    <tableColumn id="5" xr3:uid="{3C120ACD-C820-40F0-A811-FB71965A8456}" name="Test Data" dataDxfId="21" dataCellStyle="Style 2"/>
-    <tableColumn id="6" xr3:uid="{F840AE51-B943-4D36-B3DD-DA6D7928A78B}" name="Test Steps" dataDxfId="20" dataCellStyle="Style 2"/>
-    <tableColumn id="7" xr3:uid="{3CAB261C-D69B-43E7-A1D7-1A6BA20FD74A}" name="Expected" dataDxfId="19" dataCellStyle="Style 2"/>
-    <tableColumn id="8" xr3:uid="{D73F2198-7F9E-4E49-B11E-8EFAB3145591}" name="Actual" dataDxfId="18" dataCellStyle="Style 2"/>
-    <tableColumn id="9" xr3:uid="{3A901906-294C-4EAB-8697-53959199AE33}" name="Status" dataDxfId="17" dataCellStyle="Style 1"/>
+    <tableColumn id="1" xr3:uid="{2071B39D-89B8-424C-A673-240D56D9FF2C}" name="ID" dataDxfId="34" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{5CA6C4AF-7B72-4BFE-ACD6-5036B4A6A503}" name="Test Scenario" dataDxfId="33" dataCellStyle="Style 2"/>
+    <tableColumn id="3" xr3:uid="{43958177-75C6-46BD-B24E-1922DF08EB71}" name="Test Case" dataDxfId="32" dataCellStyle="Style 2"/>
+    <tableColumn id="4" xr3:uid="{E9FBB7B4-A3F3-43F9-BE99-8108EEC1DF80}" name="Precondition" dataDxfId="31" dataCellStyle="Style 2"/>
+    <tableColumn id="5" xr3:uid="{3C120ACD-C820-40F0-A811-FB71965A8456}" name="Test Data" dataDxfId="30" dataCellStyle="Style 2"/>
+    <tableColumn id="6" xr3:uid="{F840AE51-B943-4D36-B3DD-DA6D7928A78B}" name="Test Steps" dataDxfId="29" dataCellStyle="Style 2"/>
+    <tableColumn id="7" xr3:uid="{3CAB261C-D69B-43E7-A1D7-1A6BA20FD74A}" name="Expected" dataDxfId="28" dataCellStyle="Style 2"/>
+    <tableColumn id="8" xr3:uid="{D73F2198-7F9E-4E49-B11E-8EFAB3145591}" name="Actual" dataDxfId="27" dataCellStyle="Style 2"/>
+    <tableColumn id="9" xr3:uid="{3A901906-294C-4EAB-8697-53959199AE33}" name="Status" dataDxfId="26" dataCellStyle="Style 1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -857,10 +2247,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:J17"/>
+  <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A3" colorId="8" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="8" zoomScale="55" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
@@ -869,59 +2259,60 @@
     <col min="2" max="2" width="21.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
-        <f>COUNTIF(A11:A120, "*TC*")</f>
-        <v>6</v>
+        <f>COUNTIF(A11:A108, "*TC*")</f>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
         <f>COUNTIF(I:I, "pass")</f>
@@ -930,11 +2321,11 @@
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1">
         <f>COUNTIF(I:I, "fail")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -968,12 +2359,12 @@
     </row>
     <row r="12" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -989,193 +2380,517 @@
         <v>13</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="5" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>31</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H16" s="10"/>
       <c r="I16" s="5" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="262" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="B18" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="C18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>32</v>
+      <c r="D18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="262" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="262" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="262" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="262" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="291" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="291" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="291" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="291" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="291" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="291" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="291" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I12:I17">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="I12:I29">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I29">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+      <formula>"Default"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I17">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"Default"</formula>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Not Executed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12" xr:uid="{067232EC-B01A-4586-B77B-33D5B65A74F6}">
-      <formula1>"pass,fail"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{D9F68D9B-F62F-4BAB-9E9F-49122CE65EB0}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17" xr:uid="{F83B8207-4E9C-43AB-B1BB-306CCEFFBFE9}">
-      <formula1>"Default,pass,fail"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I1048576" xr:uid="{CDBE38D2-1416-4A51-9C0C-7EC734CFC5A7}">
+      <formula1>"Not Executed,PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Guru99/TC_V2.xlsx
+++ b/Guru99/TC_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F0509A-0FA9-4CB1-AD25-2A399F9FD02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1977AD-D833-4802-BC5E-40F8AC3B5309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13490" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manager" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -535,6 +535,251 @@
 pin = 123456
 phone = 01000
 email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_13</t>
+  </si>
+  <si>
+    <t>Verify telephone field with valid data</t>
+  </si>
+  <si>
+    <t>1) page opened
+2) name entered
+3) gender entered
+4) birthdate entered
+5) address entered
+6) city entered
+7) state entered
+8) pin entered
+9) phone entered
+10) emailid entered
+11) succeful message appear(new customer added)</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_14</t>
+  </si>
+  <si>
+    <t>Verify telephone field with invalid data containes special characters</t>
+  </si>
+  <si>
+    <t>name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = g903iza
+state = faysal
+pin = 123456
+phone = #01000
+phone = 01000&amp;
+phone = 010*00
+email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t>1) page opened
+2) name entered
+3) gender entered
+4) birthdate entered
+5) address entered
+6) city entered
+7) state entered
+8) pin entered
+9) phone entered
+10) emailid entered
+11) unsucceful message appear(phone number containes special character)</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_15</t>
+  </si>
+  <si>
+    <t>Verify telephone field with invalid data start with space</t>
+  </si>
+  <si>
+    <t>name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = g903iza
+state = faysal
+pin = 123456
+phone =  01000
+email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t>1) page opened
+2) name entered
+3) gender entered
+4) birthdate entered
+5) address entered
+6) city entered
+7) state entered
+8) pin entered
+9) phone entered
+10) emailid entered
+11) unsucceful message appear(phone number start with space)</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_16</t>
+  </si>
+  <si>
+    <t>Verify telephone field with invalid data (field is blank)</t>
+  </si>
+  <si>
+    <t>name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = g903iza
+state = faysal
+pin = 123456
+phone = email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t>1) page opened
+2) name entered
+3) gender entered
+4) birthdate entered
+5) address entered
+6) city entered
+7) state entered
+8) pin entered
+9) phone entered
+10) emailid entered
+11) unsucceful message appear(phone number field can not be blank)</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_17</t>
+  </si>
+  <si>
+    <t>Verify email field with invalid data containes special characters</t>
+  </si>
+  <si>
+    <t>name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = g903iza
+state = faysal
+pin = 123456
+phone = 01000
+email = k%oko@lolo.com
+email = $koko@lolo.com
+email = koko*@lolo.com</t>
+  </si>
+  <si>
+    <t>1) page opened
+2) name entered
+3) gender entered
+4) birthdate entered
+5) address entered
+6) city entered
+7) state entered
+8) pin entered
+9) phone entered
+10) emailid entered
+11) unsucceful message appear(email field containes special character)</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_18</t>
+  </si>
+  <si>
+    <t>Verify email field with invalid data (field is blank)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = g903iza
+state = faysal
+pin = 123456
+phone = 01000
+email = </t>
+  </si>
+  <si>
+    <t>1) page opened
+2) name entered
+3) gender entered
+4) birthdate entered
+5) address entered
+6) city entered
+7) state entered
+8) pin entered
+9) phone entered
+10) emailid entered
+11) unsucceful message appear(email field can not be blanked)</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_19</t>
+  </si>
+  <si>
+    <t>Verify email field with valid data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = g903iza
+state = faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com
+</t>
+  </si>
+  <si>
+    <t>1) page opened
+2) name entered
+3) gender entered
+4) birthdate entered
+5) address entered
+6) city entered
+7) state entered
+8) pin entered
+9) phone entered
+10) emailid entered
+11) succefull message appear(customer added)</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_20</t>
+  </si>
+  <si>
+    <t>Verify email field with invalid data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = g903iza
+state = faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com
+email = @lolo.com
+email = kokololo.com
+email = koko@lolo
+</t>
+  </si>
+  <si>
+    <t>1) page opened
+2) name entered
+3) gender entered
+4) birthdate entered
+5) address entered
+6) city entered
+7) state entered
+8) pin entered
+9) phone entered
+10) emailid entered
+11)unsuccefull message appear(email is invalid)</t>
   </si>
 </sst>
 </file>
@@ -691,107 +936,7 @@
     <cellStyle name="Style 1" xfId="1" xr:uid="{48540A74-5A38-46CE-A885-A7DEB07E9381}"/>
     <cellStyle name="Style 2" xfId="2" xr:uid="{C54BD104-D706-4CC8-B1AF-F972C2684223}"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -864,91 +1009,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1110,6 +1175,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-874D-4D1A-81AB-F2DB84EE1386}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1152,6 +1222,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-874D-4D1A-81AB-F2DB84EE1386}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1948,15 +2023,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}" name="Table1" displayName="Table1" ref="A2:B9" totalsRowShown="0" headerRowCellStyle="Style 2" dataCellStyle="Style 2">
   <autoFilter ref="A2:B9" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Style 2"/>
+    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Style 2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}" name="Table2" displayName="Table2" ref="A11:I16" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}" name="Table2" displayName="Table2" ref="A11:I16" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
   <autoFilter ref="A11:I16" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1969,15 +2044,15 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{2071B39D-89B8-424C-A673-240D56D9FF2C}" name="ID" dataDxfId="34" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{5CA6C4AF-7B72-4BFE-ACD6-5036B4A6A503}" name="Test Scenario" dataDxfId="33" dataCellStyle="Style 2"/>
-    <tableColumn id="3" xr3:uid="{43958177-75C6-46BD-B24E-1922DF08EB71}" name="Test Case" dataDxfId="32" dataCellStyle="Style 2"/>
-    <tableColumn id="4" xr3:uid="{E9FBB7B4-A3F3-43F9-BE99-8108EEC1DF80}" name="Precondition" dataDxfId="31" dataCellStyle="Style 2"/>
-    <tableColumn id="5" xr3:uid="{3C120ACD-C820-40F0-A811-FB71965A8456}" name="Test Data" dataDxfId="30" dataCellStyle="Style 2"/>
-    <tableColumn id="6" xr3:uid="{F840AE51-B943-4D36-B3DD-DA6D7928A78B}" name="Test Steps" dataDxfId="29" dataCellStyle="Style 2"/>
-    <tableColumn id="7" xr3:uid="{3CAB261C-D69B-43E7-A1D7-1A6BA20FD74A}" name="Expected" dataDxfId="28" dataCellStyle="Style 2"/>
-    <tableColumn id="8" xr3:uid="{D73F2198-7F9E-4E49-B11E-8EFAB3145591}" name="Actual" dataDxfId="27" dataCellStyle="Style 2"/>
-    <tableColumn id="9" xr3:uid="{3A901906-294C-4EAB-8697-53959199AE33}" name="Status" dataDxfId="26" dataCellStyle="Style 1"/>
+    <tableColumn id="1" xr3:uid="{2071B39D-89B8-424C-A673-240D56D9FF2C}" name="ID" dataDxfId="16" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{5CA6C4AF-7B72-4BFE-ACD6-5036B4A6A503}" name="Test Scenario" dataDxfId="15" dataCellStyle="Style 2"/>
+    <tableColumn id="3" xr3:uid="{43958177-75C6-46BD-B24E-1922DF08EB71}" name="Test Case" dataDxfId="14" dataCellStyle="Style 2"/>
+    <tableColumn id="4" xr3:uid="{E9FBB7B4-A3F3-43F9-BE99-8108EEC1DF80}" name="Precondition" dataDxfId="13" dataCellStyle="Style 2"/>
+    <tableColumn id="5" xr3:uid="{3C120ACD-C820-40F0-A811-FB71965A8456}" name="Test Data" dataDxfId="12" dataCellStyle="Style 2"/>
+    <tableColumn id="6" xr3:uid="{F840AE51-B943-4D36-B3DD-DA6D7928A78B}" name="Test Steps" dataDxfId="11" dataCellStyle="Style 2"/>
+    <tableColumn id="7" xr3:uid="{3CAB261C-D69B-43E7-A1D7-1A6BA20FD74A}" name="Expected" dataDxfId="10" dataCellStyle="Style 2"/>
+    <tableColumn id="8" xr3:uid="{D73F2198-7F9E-4E49-B11E-8EFAB3145591}" name="Actual" dataDxfId="9" dataCellStyle="Style 2"/>
+    <tableColumn id="9" xr3:uid="{3A901906-294C-4EAB-8697-53959199AE33}" name="Status" dataDxfId="8" dataCellStyle="Style 1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2247,28 +2322,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:J29"/>
+  <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="8" zoomScale="55" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="2"/>
+    <col min="10" max="10" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -2277,7 +2352,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -2285,7 +2360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -2293,7 +2368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -2301,16 +2376,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="1">
         <f>COUNTIF(A11:A108, "*TC*")</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
@@ -2319,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -2328,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
@@ -2357,7 +2432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -2386,7 +2461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -2413,7 +2488,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
@@ -2440,7 +2515,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>32</v>
       </c>
@@ -2467,7 +2542,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
@@ -2494,7 +2569,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
@@ -2519,7 +2594,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="262" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>47</v>
       </c>
@@ -2546,7 +2621,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="262" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>54</v>
       </c>
@@ -2573,7 +2648,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="262" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>57</v>
       </c>
@@ -2600,7 +2675,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="262" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>59</v>
       </c>
@@ -2627,7 +2702,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="262" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>61</v>
       </c>
@@ -2654,7 +2729,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="291" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>63</v>
       </c>
@@ -2681,7 +2756,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="291" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>72</v>
       </c>
@@ -2708,7 +2783,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="291" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>75</v>
       </c>
@@ -2735,7 +2810,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="291" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>78</v>
       </c>
@@ -2762,7 +2837,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="291" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>85</v>
       </c>
@@ -2789,7 +2864,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="291" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>86</v>
       </c>
@@ -2816,7 +2891,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="291" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>87</v>
       </c>
@@ -2843,38 +2918,254 @@
         <v>65</v>
       </c>
     </row>
+    <row r="30" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I12:I29">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I37">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I29">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+  <conditionalFormatting sqref="I13:I37">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Not Executed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/Guru99/TC_V2.xlsx
+++ b/Guru99/TC_V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1977AD-D833-4802-BC5E-40F8AC3B5309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9A1E10-E60F-45F4-8069-5C61072BAA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13490" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="122">
   <si>
     <t>ID</t>
   </si>
@@ -780,6 +780,9 @@
 9) phone entered
 10) emailid entered
 11)unsuccefull message appear(email is invalid)</t>
+  </si>
+  <si>
+    <t>expected message "can not start with space", Actual "numbers are not allowed"</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1320,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2324,8 +2327,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="8" zoomScale="55" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A22" colorId="8" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -2391,7 +2394,7 @@
       </c>
       <c r="B7" s="1">
         <f>COUNTIF(I:I, "pass")</f>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2485,7 +2488,7 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="5" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2512,7 +2515,7 @@
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="5" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2539,7 +2542,7 @@
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="5" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2566,7 +2569,7 @@
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="5" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2591,7 +2594,7 @@
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="5" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2618,7 +2621,7 @@
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="5" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2645,7 +2648,7 @@
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="5" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2672,7 +2675,7 @@
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="5" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2697,9 +2700,11 @@
       <c r="G21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="10"/>
+      <c r="H21" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="I21" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2726,7 +2731,7 @@
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="5" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Guru99/TC_V2.xlsx
+++ b/Guru99/TC_V2.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9A1E10-E60F-45F4-8069-5C61072BAA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9527BE7E-DE73-4275-819C-175FB67F1DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13490" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13490" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Manager" sheetId="1" r:id="rId1"/>
+    <sheet name="Analystics" sheetId="3" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId2"/>
+    <sheet name="New customer" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -784,12 +786,19 @@
   <si>
     <t>expected message "can not start with space", Actual "numbers are not allowed"</t>
   </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_21</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,6 +823,22 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -894,7 +919,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -933,13 +958,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="1" xr:uid="{48540A74-5A38-46CE-A885-A7DEB07E9381}"/>
     <cellStyle name="Style 2" xfId="2" xr:uid="{C54BD104-D706-4CC8-B1AF-F972C2684223}"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -952,11 +1000,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1021,6 +1069,84 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1077,24 +1203,6 @@
           <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1180,7 +1288,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-874D-4D1A-81AB-F2DB84EE1386}"/>
+                <c16:uniqueId val="{00000001-3058-41C2-B2F4-F3A631D2285C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1227,7 +1335,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-874D-4D1A-81AB-F2DB84EE1386}"/>
+                <c16:uniqueId val="{00000003-3058-41C2-B2F4-F3A631D2285C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1290,11 +1398,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Manager!$A$6:$A$8</c15:sqref>
+                    <c15:sqref>Analystics!$A$6:$A$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Manager!$A$7:$A$8</c:f>
+              <c:f>Analystics!$A$7:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1311,11 +1419,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Manager!$B$6:$B$8</c15:sqref>
+                    <c15:sqref>Analystics!$B$6:$B$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Manager!$B$7:$B$8</c:f>
+              <c:f>Analystics!$B$7:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1333,7 +1441,7 @@
               <c15:categoryFilterExceptions/>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3BC5-46AF-A9F2-880DEF3616C1}"/>
+              <c16:uniqueId val="{00000004-3058-41C2-B2F4-F3A631D2285C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1986,26 +2094,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>27213</xdr:colOff>
+      <xdr:colOff>433612</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>181428</xdr:rowOff>
+      <xdr:rowOff>171904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9070</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>36286</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D16C19-D992-ACDD-DAED-6EEEFD3A64E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{865B3C3C-B281-487A-B30F-FCE734AB6194}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2026,16 +2136,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}" name="Table1" displayName="Table1" ref="A2:B9" totalsRowShown="0" headerRowCellStyle="Style 2" dataCellStyle="Style 2">
   <autoFilter ref="A2:B9" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Style 2"/>
+    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="17" totalsRowDxfId="18" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="15" totalsRowDxfId="16" dataCellStyle="Style 2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}" name="Table2" displayName="Table2" ref="A11:I16" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
-  <autoFilter ref="A11:I16" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}" name="Table2" displayName="Table2" ref="A1:I6" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
+  <autoFilter ref="A1:I6" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2047,15 +2157,15 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{2071B39D-89B8-424C-A673-240D56D9FF2C}" name="ID" dataDxfId="16" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{5CA6C4AF-7B72-4BFE-ACD6-5036B4A6A503}" name="Test Scenario" dataDxfId="15" dataCellStyle="Style 2"/>
-    <tableColumn id="3" xr3:uid="{43958177-75C6-46BD-B24E-1922DF08EB71}" name="Test Case" dataDxfId="14" dataCellStyle="Style 2"/>
-    <tableColumn id="4" xr3:uid="{E9FBB7B4-A3F3-43F9-BE99-8108EEC1DF80}" name="Precondition" dataDxfId="13" dataCellStyle="Style 2"/>
-    <tableColumn id="5" xr3:uid="{3C120ACD-C820-40F0-A811-FB71965A8456}" name="Test Data" dataDxfId="12" dataCellStyle="Style 2"/>
-    <tableColumn id="6" xr3:uid="{F840AE51-B943-4D36-B3DD-DA6D7928A78B}" name="Test Steps" dataDxfId="11" dataCellStyle="Style 2"/>
-    <tableColumn id="7" xr3:uid="{3CAB261C-D69B-43E7-A1D7-1A6BA20FD74A}" name="Expected" dataDxfId="10" dataCellStyle="Style 2"/>
-    <tableColumn id="8" xr3:uid="{D73F2198-7F9E-4E49-B11E-8EFAB3145591}" name="Actual" dataDxfId="9" dataCellStyle="Style 2"/>
-    <tableColumn id="9" xr3:uid="{3A901906-294C-4EAB-8697-53959199AE33}" name="Status" dataDxfId="8" dataCellStyle="Style 1"/>
+    <tableColumn id="1" xr3:uid="{2071B39D-89B8-424C-A673-240D56D9FF2C}" name="ID" dataDxfId="27" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{5CA6C4AF-7B72-4BFE-ACD6-5036B4A6A503}" name="Test Scenario" dataDxfId="26" dataCellStyle="Style 2"/>
+    <tableColumn id="3" xr3:uid="{43958177-75C6-46BD-B24E-1922DF08EB71}" name="Test Case" dataDxfId="25" dataCellStyle="Style 2"/>
+    <tableColumn id="4" xr3:uid="{E9FBB7B4-A3F3-43F9-BE99-8108EEC1DF80}" name="Precondition" dataDxfId="24" dataCellStyle="Style 2"/>
+    <tableColumn id="5" xr3:uid="{3C120ACD-C820-40F0-A811-FB71965A8456}" name="Test Data" dataDxfId="23" dataCellStyle="Style 2"/>
+    <tableColumn id="6" xr3:uid="{F840AE51-B943-4D36-B3DD-DA6D7928A78B}" name="Test Steps" dataDxfId="22" dataCellStyle="Style 2"/>
+    <tableColumn id="7" xr3:uid="{3CAB261C-D69B-43E7-A1D7-1A6BA20FD74A}" name="Expected" dataDxfId="21" dataCellStyle="Style 2"/>
+    <tableColumn id="8" xr3:uid="{D73F2198-7F9E-4E49-B11E-8EFAB3145591}" name="Actual" dataDxfId="20" dataCellStyle="Style 2"/>
+    <tableColumn id="9" xr3:uid="{3A901906-294C-4EAB-8697-53959199AE33}" name="Status" dataDxfId="19" dataCellStyle="Style 1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2323,12 +2433,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F5E454-6D40-4766-A30A-D6B7E7603A7B}">
+  <dimension ref="A2:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <f>SUM(COUNTIF(Login!A1:A78, "*TC*"),COUNTIF('New customer'!A:A, "*TC*"))</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <f>SUM(COUNTIF(Login!I:I,"pass"),COUNTIF('New customer'!I:I,"pass"))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <f>SUM(COUNTIF('New customer'!I:I,"fail"),COUNTIF(Login!I:I, "fail"))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="1">
+        <f>SUM(COUNTIF(Login!I:I,"Not Executed"),COUNTIF('New customer'!I:I,"Not Executed"))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:J37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A22" colorId="8" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView defaultGridColor="0" colorId="8" zoomScale="44" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -2346,847 +2548,926 @@
     <col min="11" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1">
-        <f>COUNTIF(A11:A108, "*TC*")</f>
+    <row r="1" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1">
-        <f>COUNTIF(I:I, "pass")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1">
-        <f>COUNTIF(I:I, "fail")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="11" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="8" t="s">
+    <row r="5" spans="1:9" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="5" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="12" t="s">
+    <row r="6" spans="1:9" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="E6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="5" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="5" t="s">
+    <row r="7" spans="1:9" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="316.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="28" x14ac:dyDescent="0.3"/>
+    <row r="29" x14ac:dyDescent="0.3"/>
+    <row r="30" x14ac:dyDescent="0.3"/>
+    <row r="31" x14ac:dyDescent="0.3"/>
+    <row r="32" x14ac:dyDescent="0.3"/>
+    <row r="33" x14ac:dyDescent="0.3"/>
+    <row r="34" x14ac:dyDescent="0.3"/>
+    <row r="35" x14ac:dyDescent="0.3"/>
+    <row r="36" x14ac:dyDescent="0.3"/>
+    <row r="37" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I37">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+  <conditionalFormatting sqref="I2:I7">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I37">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+  <conditionalFormatting sqref="I3:I7">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
-      <formula>"fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{D9F68D9B-F62F-4BAB-9E9F-49122CE65EB0}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I1048576" xr:uid="{CDBE38D2-1416-4A51-9C0C-7EC734CFC5A7}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{CDBE38D2-1416-4A51-9C0C-7EC734CFC5A7}">
       <formula1>"Not Executed,PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="2">
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182AED3B-5B54-47CA-9351-D206B6473FEB}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="60" zoomScaleNormal="35" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="331.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I2:I22">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I22">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I22">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>"Default"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I22" xr:uid="{6F69B301-4925-44EA-A8B6-F82B76E36D30}">
+      <formula1>"Not Executed,PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Guru99/TC_V2.xlsx
+++ b/Guru99/TC_V2.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9527BE7E-DE73-4275-819C-175FB67F1DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B452F2-574C-4F88-9F17-2086384475BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13490" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analystics" sheetId="3" r:id="rId1"/>
     <sheet name="Login" sheetId="1" r:id="rId2"/>
     <sheet name="New customer" sheetId="2" r:id="rId3"/>
+    <sheet name="Edit customer" sheetId="4" r:id="rId4"/>
+    <sheet name="Delete customer" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="168">
   <si>
     <t>ID</t>
   </si>
@@ -566,19 +568,6 @@
     <t>Verify telephone field with invalid data containes special characters</t>
   </si>
   <si>
-    <t>name = koko
-gender = male
-BirtDate = 1/1/1999
-address =  kafr
-city = g903iza
-state = faysal
-pin = 123456
-phone = #01000
-phone = 01000&amp;
-phone = 010*00
-email = koko@lolo.com</t>
-  </si>
-  <si>
     <t>1) page opened
 2) name entered
 3) gender entered
@@ -599,17 +588,6 @@
     <t>Verify telephone field with invalid data start with space</t>
   </si>
   <si>
-    <t>name = koko
-gender = male
-BirtDate = 1/1/1999
-address =  kafr
-city = g903iza
-state = faysal
-pin = 123456
-phone =  01000
-email = koko@lolo.com</t>
-  </si>
-  <si>
     <t>1) page opened
 2) name entered
 3) gender entered
@@ -630,16 +608,6 @@
     <t>Verify telephone field with invalid data (field is blank)</t>
   </si>
   <si>
-    <t>name = koko
-gender = male
-BirtDate = 1/1/1999
-address =  kafr
-city = g903iza
-state = faysal
-pin = 123456
-phone = email = koko@lolo.com</t>
-  </si>
-  <si>
     <t>1) page opened
 2) name entered
 3) gender entered
@@ -660,48 +628,11 @@
     <t>Verify email field with invalid data containes special characters</t>
   </si>
   <si>
-    <t>name = koko
-gender = male
-BirtDate = 1/1/1999
-address =  kafr
-city = g903iza
-state = faysal
-pin = 123456
-phone = 01000
-email = k%oko@lolo.com
-email = $koko@lolo.com
-email = koko*@lolo.com</t>
-  </si>
-  <si>
-    <t>1) page opened
-2) name entered
-3) gender entered
-4) birthdate entered
-5) address entered
-6) city entered
-7) state entered
-8) pin entered
-9) phone entered
-10) emailid entered
-11) unsucceful message appear(email field containes special character)</t>
-  </si>
-  <si>
     <t>TC_New
 Customer_18</t>
   </si>
   <si>
     <t>Verify email field with invalid data (field is blank)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name = koko
-gender = male
-BirtDate = 1/1/1999
-address =  kafr
-city = g903iza
-state = faysal
-pin = 123456
-phone = 01000
-email = </t>
   </si>
   <si>
     <t>1) page opened
@@ -724,18 +655,6 @@
     <t>Verify email field with valid data</t>
   </si>
   <si>
-    <t xml:space="preserve">name = koko
-gender = male
-BirtDate = 1/1/1999
-address =  kafr
-city = g903iza
-state = faysal
-pin = 123456
-phone = 01000
-email = koko@lolo.com
-</t>
-  </si>
-  <si>
     <t>1) page opened
 2) name entered
 3) gender entered
@@ -756,21 +675,6 @@
     <t>Verify email field with invalid data</t>
   </si>
   <si>
-    <t xml:space="preserve">name = koko
-gender = male
-BirtDate = 1/1/1999
-address =  kafr
-city = g903iza
-state = faysal
-pin = 123456
-phone = 01000
-email = koko@lolo.com
-email = @lolo.com
-email = kokololo.com
-email = koko@lolo
-</t>
-  </si>
-  <si>
     <t>1) page opened
 2) name entered
 3) gender entered
@@ -792,6 +696,307 @@
   <si>
     <t>TC_New
 Customer_21</t>
+  </si>
+  <si>
+    <t>Verify state field with invalid data (containes special symbol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = giza
+state = %faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = giza
+state = faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = giza
+state = faysal
+pin = 123456
+phone = 01000
+email = </t>
+  </si>
+  <si>
+    <t>name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = giza
+state = faysal
+pin = 123456
+phone = 01000
+email = k%oko@lolo.com
+email = $koko@lolo.com
+email = koko*@lolo.com</t>
+  </si>
+  <si>
+    <t>name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = giza
+state = faysal
+pin = 123456
+phone = email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t>name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = giza
+state = faysal
+pin = 123456
+phone =  01000
+email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t>name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = giza
+state = faysal
+pin = 123456
+phone = #01000
+phone = 01000&amp;
+phone = 010*00
+email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t>name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = giza
+state = faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com</t>
+  </si>
+  <si>
+    <t>error message appear "state field can not have any special characters"</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_22</t>
+  </si>
+  <si>
+    <t>Verify state field with invalid data (containes numbers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = giza
+state = 98faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com
+</t>
+  </si>
+  <si>
+    <t>error message appear "state field can not have any number"</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_23</t>
+  </si>
+  <si>
+    <t>Verify state field with invalid data (start with space)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = giza
+state =  faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.com
+</t>
+  </si>
+  <si>
+    <t>error message appear "state field can not start with space"</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_24</t>
+  </si>
+  <si>
+    <t>Verify state field with invalid data (be blank)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = giza
+state = 
+pin = 123456
+phone = 01000
+email = koko@lolo.com
+</t>
+  </si>
+  <si>
+    <t>error message appear "state field can not be blank"</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_25</t>
+  </si>
+  <si>
+    <t>Verify state field with valid data</t>
+  </si>
+  <si>
+    <t>message appear customer added succefully</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_26</t>
+  </si>
+  <si>
+    <t>Verify pin field with valid data</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_27</t>
+  </si>
+  <si>
+    <t>Verify pin field with invalid data (containes special character)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = giza
+state = faysal
+pin = 1#23456
+phone = 01000
+email = koko@lolo.com
+</t>
+  </si>
+  <si>
+    <t>error message appeared "pin field can not have special character"</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_28</t>
+  </si>
+  <si>
+    <t>Verify pin field with invalid data (start with space)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = giza
+state = faysal
+pin =  123456
+phone = 01000
+email = koko@lolo.com
+</t>
+  </si>
+  <si>
+    <t>error message appeared "pin field can not start with space"</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_29</t>
+  </si>
+  <si>
+    <t>Verify pin field with invalid data (left blank)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = giza
+state = faysal
+pin =  
+phone = 01000
+email = koko@lolo.com
+</t>
+  </si>
+  <si>
+    <t>error message appeared "pin field can not be blank"</t>
+  </si>
+  <si>
+    <t>TC_New
+Customer_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify new customer fields labels </t>
+  </si>
+  <si>
+    <t>Verify field labels match the SRS document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cross check the field labels and make shure it matches the SRS documents
+</t>
+  </si>
+  <si>
+    <t>labels match the SRS document</t>
+  </si>
+  <si>
+    <t>expected message "can not start with space", Actual "nothing appears"</t>
+  </si>
+  <si>
+    <t>expected message "field can not have any special character" actual "nothing appears"</t>
+  </si>
+  <si>
+    <t>expected message "field can not be blank" actual "nothing appears"</t>
+  </si>
+  <si>
+    <t>nothing appears</t>
+  </si>
+  <si>
+    <t>message special caracters are not allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name = koko
+gender = male
+BirtDate = 1/1/1999
+address =  kafr
+city = giza
+state = faysal
+pin = 123456
+phone = 01000
+email = koko@lolo.co
+email = @lolo.com
+email = kokololo.com
+email = koko@lolo
+</t>
+  </si>
+  <si>
+    <t>expected error message for this email "koko@lolo.co" actual accept it</t>
+  </si>
+  <si>
+    <t>not detected</t>
   </si>
 </sst>
 </file>
@@ -977,47 +1182,7 @@
     <cellStyle name="Style 1" xfId="1" xr:uid="{48540A74-5A38-46CE-A885-A7DEB07E9381}"/>
     <cellStyle name="Style 2" xfId="2" xr:uid="{C54BD104-D706-4CC8-B1AF-F972C2684223}"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1035,6 +1200,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1129,24 +1304,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1203,6 +1360,24 @@
           <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1428,10 +1603,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2136,15 +2311,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}" name="Table1" displayName="Table1" ref="A2:B9" totalsRowShown="0" headerRowCellStyle="Style 2" dataCellStyle="Style 2">
   <autoFilter ref="A2:B9" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="17" totalsRowDxfId="18" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="15" totalsRowDxfId="16" dataCellStyle="Style 2"/>
+    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Style 2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}" name="Table2" displayName="Table2" ref="A1:I6" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}" name="Table2" displayName="Table2" ref="A1:I6" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
   <autoFilter ref="A1:I6" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2157,15 +2332,15 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{2071B39D-89B8-424C-A673-240D56D9FF2C}" name="ID" dataDxfId="27" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{5CA6C4AF-7B72-4BFE-ACD6-5036B4A6A503}" name="Test Scenario" dataDxfId="26" dataCellStyle="Style 2"/>
-    <tableColumn id="3" xr3:uid="{43958177-75C6-46BD-B24E-1922DF08EB71}" name="Test Case" dataDxfId="25" dataCellStyle="Style 2"/>
-    <tableColumn id="4" xr3:uid="{E9FBB7B4-A3F3-43F9-BE99-8108EEC1DF80}" name="Precondition" dataDxfId="24" dataCellStyle="Style 2"/>
-    <tableColumn id="5" xr3:uid="{3C120ACD-C820-40F0-A811-FB71965A8456}" name="Test Data" dataDxfId="23" dataCellStyle="Style 2"/>
-    <tableColumn id="6" xr3:uid="{F840AE51-B943-4D36-B3DD-DA6D7928A78B}" name="Test Steps" dataDxfId="22" dataCellStyle="Style 2"/>
-    <tableColumn id="7" xr3:uid="{3CAB261C-D69B-43E7-A1D7-1A6BA20FD74A}" name="Expected" dataDxfId="21" dataCellStyle="Style 2"/>
-    <tableColumn id="8" xr3:uid="{D73F2198-7F9E-4E49-B11E-8EFAB3145591}" name="Actual" dataDxfId="20" dataCellStyle="Style 2"/>
-    <tableColumn id="9" xr3:uid="{3A901906-294C-4EAB-8697-53959199AE33}" name="Status" dataDxfId="19" dataCellStyle="Style 1"/>
+    <tableColumn id="1" xr3:uid="{2071B39D-89B8-424C-A673-240D56D9FF2C}" name="ID" dataDxfId="20" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{5CA6C4AF-7B72-4BFE-ACD6-5036B4A6A503}" name="Test Scenario" dataDxfId="19" dataCellStyle="Style 2"/>
+    <tableColumn id="3" xr3:uid="{43958177-75C6-46BD-B24E-1922DF08EB71}" name="Test Case" dataDxfId="18" dataCellStyle="Style 2"/>
+    <tableColumn id="4" xr3:uid="{E9FBB7B4-A3F3-43F9-BE99-8108EEC1DF80}" name="Precondition" dataDxfId="17" dataCellStyle="Style 2"/>
+    <tableColumn id="5" xr3:uid="{3C120ACD-C820-40F0-A811-FB71965A8456}" name="Test Data" dataDxfId="16" dataCellStyle="Style 2"/>
+    <tableColumn id="6" xr3:uid="{F840AE51-B943-4D36-B3DD-DA6D7928A78B}" name="Test Steps" dataDxfId="15" dataCellStyle="Style 2"/>
+    <tableColumn id="7" xr3:uid="{3CAB261C-D69B-43E7-A1D7-1A6BA20FD74A}" name="Expected" dataDxfId="14" dataCellStyle="Style 2"/>
+    <tableColumn id="8" xr3:uid="{D73F2198-7F9E-4E49-B11E-8EFAB3145591}" name="Actual" dataDxfId="13" dataCellStyle="Style 2"/>
+    <tableColumn id="9" xr3:uid="{3A901906-294C-4EAB-8697-53959199AE33}" name="Status" dataDxfId="12" dataCellStyle="Style 1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2437,16 +2612,16 @@
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" style="18" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="2" width="25.7265625" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -2454,7 +2629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -2462,7 +2637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -2470,7 +2645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -2478,43 +2653,43 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="1">
         <f>SUM(COUNTIF(Login!A1:A78, "*TC*"),COUNTIF('New customer'!A:A, "*TC*"))</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1">
         <f>SUM(COUNTIF(Login!I:I,"pass"),COUNTIF('New customer'!I:I,"pass"))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1">
         <f>SUM(COUNTIF('New customer'!I:I,"fail"),COUNTIF(Login!I:I, "fail"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="1">
         <f>SUM(COUNTIF(Login!I:I,"Not Executed"),COUNTIF('New customer'!I:I,"Not Executed"))</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2533,22 +2708,22 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="2"/>
+    <col min="10" max="10" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2577,7 +2752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="117" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -2606,7 +2781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -2633,7 +2808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
@@ -2660,7 +2835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
@@ -2687,7 +2862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
@@ -2714,7 +2889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
@@ -2739,58 +2914,58 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="28" x14ac:dyDescent="0.3"/>
-    <row r="29" x14ac:dyDescent="0.3"/>
-    <row r="30" x14ac:dyDescent="0.3"/>
-    <row r="31" x14ac:dyDescent="0.3"/>
-    <row r="32" x14ac:dyDescent="0.3"/>
-    <row r="33" x14ac:dyDescent="0.3"/>
-    <row r="34" x14ac:dyDescent="0.3"/>
-    <row r="35" x14ac:dyDescent="0.3"/>
-    <row r="36" x14ac:dyDescent="0.3"/>
-    <row r="37" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="30" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="31" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="32" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I7">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I7">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2809,24 +2984,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182AED3B-5B54-47CA-9351-D206B6473FEB}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="60" zoomScaleNormal="35" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="68" zoomScaleNormal="35" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="30.7265625" customWidth="1"/>
+    <col min="6" max="6" width="50.7265625" customWidth="1"/>
+    <col min="7" max="7" width="30.7265625" customWidth="1"/>
+    <col min="8" max="8" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2855,7 +3030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>47</v>
       </c>
@@ -2878,13 +3053,13 @@
         <v>53</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>54</v>
       </c>
@@ -2911,7 +3086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>57</v>
       </c>
@@ -2938,7 +3113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
         <v>59</v>
       </c>
@@ -2961,13 +3136,13 @@
         <v>56</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
         <v>61</v>
       </c>
@@ -2994,7 +3169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
         <v>63</v>
       </c>
@@ -3016,12 +3191,14 @@
       <c r="G7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="15" t="s">
+        <v>160</v>
+      </c>
       <c r="I7" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
         <v>72</v>
       </c>
@@ -3043,12 +3220,14 @@
       <c r="G8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>161</v>
+      </c>
       <c r="I8" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
         <v>75</v>
       </c>
@@ -3070,12 +3249,14 @@
       <c r="G9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>162</v>
+      </c>
       <c r="I9" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
         <v>78</v>
       </c>
@@ -3097,12 +3278,14 @@
       <c r="G10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="I10" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14" t="s">
         <v>85</v>
       </c>
@@ -3126,10 +3309,10 @@
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
         <v>86</v>
       </c>
@@ -3153,10 +3336,10 @@
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
         <v>87</v>
       </c>
@@ -3180,10 +3363,10 @@
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
         <v>90</v>
       </c>
@@ -3197,7 +3380,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>52</v>
@@ -3207,10 +3390,10 @@
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
         <v>93</v>
       </c>
@@ -3224,250 +3407,512 @@
         <v>50</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>52</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="15"/>
+        <v>98</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>163</v>
+      </c>
       <c r="I16" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>52</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>52</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="15"/>
+        <v>164</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>163</v>
+      </c>
       <c r="I18" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>52</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="332.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>52</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="15"/>
+        <v>112</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>166</v>
+      </c>
       <c r="I21" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="331.5" thickTop="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="14" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>52</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="16" t="s">
-        <v>65</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="47" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I22">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+  <conditionalFormatting sqref="I1:I31">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I22">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+  <conditionalFormatting sqref="I2:I31">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>"Default"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I22">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
-      <formula>"Default"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Not Executed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I22" xr:uid="{6F69B301-4925-44EA-A8B6-F82B76E36D30}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I31" xr:uid="{6F69B301-4925-44EA-A8B6-F82B76E36D30}">
       <formula1>"Not Executed,PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F52083-4F3D-44DB-B858-864F598BC2B4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D149986-1BEC-4EAD-BEB8-860585462811}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>